--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:L360"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,14 +684,14 @@
       </c>
       <c r="B4" s="10">
         <f>H4/G4</f>
-        <v>4.6100000000000003</v>
+        <v>3</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
       </c>
       <c r="D4" s="10">
         <f>C4*B4</f>
-        <v>4.6100000000000003</v>
+        <v>3</v>
       </c>
       <c r="E4" s="14">
         <f>C4*$L$6</f>
@@ -699,13 +699,13 @@
       </c>
       <c r="F4" s="10">
         <f>E4*B4</f>
-        <v>9.2200000000000006</v>
+        <v>6</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="12">
-        <v>4.6100000000000003</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
         <f>_xlfn.CEILING.MATH(E4/G4)</f>
@@ -713,15 +713,15 @@
       </c>
       <c r="J4" s="11">
         <f>I4*H4</f>
-        <v>9.2200000000000006</v>
+        <v>6</v>
       </c>
       <c r="K4" s="13">
         <f>SUM(D4:D47)</f>
-        <v>15.481800000000003</v>
+        <v>13.8718</v>
       </c>
       <c r="L4" s="13">
         <f>SUM(J4:J46) + L5</f>
-        <v>47.06</v>
+        <v>43.84</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
       </c>
       <c r="L7" s="15">
         <f>L4/L6</f>
-        <v>23.53</v>
+        <v>21.92</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Bill Of Materials" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Arduino Pro Mini</t>
   </si>
@@ -117,10 +117,64 @@
     <t>RGB LED</t>
   </si>
   <si>
-    <t>Black Wire (???)</t>
+    <t>Unit Price:</t>
   </si>
   <si>
-    <t>Unit Price:</t>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>bit.ly/2ApPGsc-APM</t>
+  </si>
+  <si>
+    <t>bit.ly/2o65BtP-TMP36</t>
+  </si>
+  <si>
+    <t>bit.ly/2zduoQx-SMWD</t>
+  </si>
+  <si>
+    <t>bit.ly/2BsgtYs-2CW</t>
+  </si>
+  <si>
+    <t>2C Black Wire</t>
+  </si>
+  <si>
+    <t>bit.ly/2C9qIh5-CAPS</t>
+  </si>
+  <si>
+    <t>bit.ly/2jW6pgr-PWR7-5</t>
+  </si>
+  <si>
+    <t>bit.ly/2CokPgO-DCBJ</t>
+  </si>
+  <si>
+    <t>bit.ly/2kv6dEx-FR</t>
+  </si>
+  <si>
+    <t>bit.ly/2khBdbA-HS</t>
+  </si>
+  <si>
+    <t>bit.ly/2B9Nnhn-IR</t>
+  </si>
+  <si>
+    <t>bit.ly/2yTgxLv-LS</t>
+  </si>
+  <si>
+    <t>bit.ly/2kgaSed-MTPB</t>
+  </si>
+  <si>
+    <t>bit.ly/2oGm48y-PR</t>
+  </si>
+  <si>
+    <t>bit.ly/2oGjfV4-AR</t>
+  </si>
+  <si>
+    <t>(need checking)</t>
+  </si>
+  <si>
+    <t>bit.ly/2AYCqv2-RGB</t>
+  </si>
+  <si>
+    <t>dirtypcbs.com</t>
   </si>
 </sst>
 </file>
@@ -205,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -261,6 +315,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -268,7 +333,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,9 +349,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -309,6 +371,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -592,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L360"/>
+  <dimension ref="A1:M360"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,40 +682,44 @@
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -668,691 +747,742 @@
       <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <f>H4/G4</f>
-        <v>3</v>
-      </c>
-      <c r="C4" s="9">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="10">
-        <f>C4*B4</f>
-        <v>3</v>
-      </c>
-      <c r="E4" s="14">
-        <f>C4*$L$6</f>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:D20" si="0">C4*B4</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E4" s="13">
+        <f>C4*$M$6</f>
         <v>2</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <f>E4*B4</f>
-        <v>6</v>
-      </c>
-      <c r="G4" s="9">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="12">
-        <v>3</v>
+      <c r="H4" s="11">
+        <v>2.1800000000000002</v>
       </c>
       <c r="I4" s="1">
         <f>_xlfn.CEILING.MATH(E4/G4)</f>
         <v>2</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="17">
         <f>I4*H4</f>
-        <v>6</v>
-      </c>
-      <c r="K4" s="13">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="12">
         <f>SUM(D4:D47)</f>
-        <v>13.8718</v>
-      </c>
-      <c r="L4" s="13">
-        <f>SUM(J4:J46) + L5</f>
-        <v>43.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16.69241111111111</v>
+      </c>
+      <c r="M4" s="12">
+        <f>SUM(J4:J46) + M5</f>
+        <v>56.740000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10">
-        <f t="shared" ref="B5:B8" si="0">H5/G5</f>
-        <v>2.02</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="9">
+        <f t="shared" ref="B5:B8" si="1">H5/G5</f>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="10">
-        <f>C5*B5</f>
-        <v>2.02</v>
-      </c>
-      <c r="E5" s="14">
-        <f t="shared" ref="E5:E20" si="1">C5*$L$6</f>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" ref="E5:E20" si="2">C5*$M$6</f>
         <v>2</v>
       </c>
-      <c r="F5" s="10">
-        <f t="shared" ref="F5:F20" si="2">E5*B5</f>
-        <v>4.04</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:F20" si="3">E5*B5</f>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="12">
-        <v>2.02</v>
+      <c r="H5" s="11">
+        <v>2.2400000000000002</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I20" si="3">_xlfn.CEILING.MATH(E5/G5)</f>
+        <f t="shared" ref="I5:I20" si="4">_xlfn.CEILING.MATH(E5/G5)</f>
         <v>2</v>
       </c>
-      <c r="J5" s="11">
-        <f t="shared" ref="J5:K20" si="4">I5*H5</f>
-        <v>4.04</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="17">
+        <f t="shared" ref="J5:J20" si="5">I5*H5</f>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="12">
+      <c r="M5" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>1.28</v>
-      </c>
-      <c r="C6" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="10">
-        <f>C6*B6</f>
-        <v>1.28</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="H6" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="5"/>
+        <v>2.6</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="2"/>
-        <v>2.56</v>
-      </c>
-      <c r="G6" s="9">
+        <v>1.0150000000000001</v>
+      </c>
+      <c r="C7" s="8">
         <v>5</v>
       </c>
-      <c r="H6" s="12">
-        <v>6.4</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>5.0750000000000011</v>
+      </c>
+      <c r="E7" s="13">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9">
         <f t="shared" si="3"/>
+        <v>5.0750000000000011</v>
+      </c>
+      <c r="G7" s="8">
+        <v>10</v>
+      </c>
+      <c r="H7" s="11">
+        <v>10.15</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J6" s="11">
-        <f t="shared" si="4"/>
-        <v>6.4</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="J7" s="17">
+        <f t="shared" si="5"/>
+        <v>10.15</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="10">
-        <f t="shared" si="0"/>
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="C7" s="9">
-        <v>5</v>
-      </c>
-      <c r="D7" s="10">
-        <f>C7*B7</f>
-        <v>2.2650000000000001</v>
-      </c>
-      <c r="E7" s="14">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="2"/>
-        <v>4.53</v>
-      </c>
-      <c r="G7" s="9">
-        <v>10</v>
-      </c>
-      <c r="H7" s="12">
-        <v>4.53</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J7" s="11">
-        <f t="shared" si="4"/>
-        <v>4.53</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="15">
-        <f>L4/L6</f>
-        <v>21.92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="14">
+        <f>M4/M6</f>
+        <v>28.370000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10">
-        <f>C8*B8</f>
-        <v>0.7</v>
-      </c>
-      <c r="E8" s="14">
-        <f t="shared" si="1"/>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F8" s="10">
-        <f t="shared" si="2"/>
-        <v>1.4</v>
-      </c>
-      <c r="G8" s="9">
-        <v>5</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1.75</v>
+      <c r="F8" s="9">
+        <f t="shared" si="3"/>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="11">
+        <f>1.46+0.89</f>
+        <v>2.35</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J8" s="11">
-        <f t="shared" si="4"/>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="17">
+        <f t="shared" si="5"/>
+        <v>2.35</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <f>H9/G9</f>
-        <v>5.7333333333333333E-2</v>
-      </c>
-      <c r="C9" s="9">
+        <v>5.3111111111111116E-2</v>
+      </c>
+      <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
-        <f>C9*B9</f>
-        <v>5.7333333333333333E-2</v>
-      </c>
-      <c r="E9" s="14">
-        <f t="shared" si="1"/>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>5.3111111111111116E-2</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F9" s="10">
-        <f t="shared" si="2"/>
-        <v>0.11466666666666667</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9" s="9">
+        <f t="shared" si="3"/>
+        <v>0.10622222222222223</v>
+      </c>
+      <c r="G9" s="8">
         <v>45</v>
       </c>
-      <c r="H9" s="12">
-        <v>2.58</v>
+      <c r="H9" s="11">
+        <v>2.39</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J9" s="11">
-        <f t="shared" si="4"/>
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="17">
+        <f t="shared" si="5"/>
+        <v>2.39</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <f>H10/G10</f>
-        <v>3.29</v>
-      </c>
-      <c r="C10" s="9">
+        <v>2.99</v>
+      </c>
+      <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="10">
-        <f>C10*B10</f>
-        <v>3.29</v>
-      </c>
-      <c r="E10" s="14">
-        <f t="shared" si="1"/>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>2.99</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F10" s="10">
-        <f t="shared" si="2"/>
-        <v>6.58</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10" s="9">
+        <f t="shared" si="3"/>
+        <v>5.98</v>
+      </c>
+      <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="H10" s="12">
-        <v>3.29</v>
+      <c r="H10" s="11">
+        <v>2.99</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J10" s="11">
-        <f t="shared" si="4"/>
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="17">
+        <f t="shared" si="5"/>
+        <v>5.98</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10">
-        <f t="shared" ref="B11:B20" si="5">H11/G11</f>
-        <v>0.22200000000000003</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="9">
+        <f t="shared" ref="B11:B20" si="6">H11/G11</f>
+        <v>0.184</v>
+      </c>
+      <c r="C11" s="8">
         <v>1</v>
       </c>
-      <c r="D11" s="10">
-        <f>C11*B11</f>
-        <v>0.22200000000000003</v>
-      </c>
-      <c r="E11" s="14">
-        <f t="shared" si="1"/>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.184</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F11" s="10">
-        <f t="shared" si="2"/>
-        <v>0.44400000000000006</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="9">
+        <f t="shared" si="3"/>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G11" s="8">
         <v>10</v>
       </c>
-      <c r="H11" s="12">
-        <v>2.2200000000000002</v>
+      <c r="H11" s="11">
+        <v>1.84</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J11" s="11">
-        <f t="shared" si="4"/>
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="17">
+        <f t="shared" si="5"/>
+        <v>1.84</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10">
-        <f t="shared" si="5"/>
+      <c r="B12" s="9">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
-      <c r="C12" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="10">
-        <f>C12*B12</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="E12" s="14">
-        <f t="shared" si="1"/>
+      <c r="C12" s="8">
         <v>0.2</v>
       </c>
-      <c r="F12" s="10">
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E12" s="13">
         <f t="shared" si="2"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="G12" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="G12" s="8">
         <v>5</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
+        <f t="shared" si="6"/>
+        <v>0.10900000000000001</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10900000000000001</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="3"/>
+        <v>0.21800000000000003</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="17">
         <f t="shared" si="5"/>
-        <v>0.10900000000000001</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10">
-        <f>C13*B13</f>
-        <v>0.10900000000000001</v>
-      </c>
-      <c r="E13" s="14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="2"/>
-        <v>0.21800000000000003</v>
-      </c>
-      <c r="G13" s="9">
-        <v>10</v>
-      </c>
-      <c r="H13" s="12">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="11">
-        <f t="shared" si="4"/>
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="10">
-        <f t="shared" si="5"/>
+      <c r="B14" s="9">
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="10">
-        <f>C14*B14</f>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="E14" s="14">
-        <f t="shared" si="1"/>
+      <c r="E14" s="13">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F14" s="10">
-        <f t="shared" si="2"/>
+      <c r="F14" s="9">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>10</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>1</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
+        <f t="shared" si="6"/>
+        <v>1.1899999999999999E-2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>2.3799999999999998E-2</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="3"/>
+        <v>4.7599999999999996E-2</v>
+      </c>
+      <c r="G15" s="8">
+        <v>100</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="17">
         <f t="shared" si="5"/>
-        <v>1.09E-2</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2</v>
-      </c>
-      <c r="D15" s="10">
-        <f>C15*B15</f>
-        <v>2.18E-2</v>
-      </c>
-      <c r="E15" s="14">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="2"/>
-        <v>4.36E-2</v>
-      </c>
-      <c r="G15" s="9">
-        <v>100</v>
-      </c>
-      <c r="H15" s="12">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="11">
-        <f t="shared" si="4"/>
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.19</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="10">
-        <f t="shared" si="5"/>
+      <c r="B16" s="9">
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="10">
-        <f>C16*B16</f>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E16" s="14">
-        <f t="shared" si="1"/>
+      <c r="E16" s="13">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F16" s="10">
-        <f t="shared" si="2"/>
+      <c r="F16" s="9">
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>20</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
+        <f t="shared" si="6"/>
+        <v>5.6666666666666662E-3</v>
+      </c>
+      <c r="C17" s="8">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>5.6666666666666664E-2</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="3"/>
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="G17" s="8">
+        <v>300</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="17">
         <f t="shared" si="5"/>
-        <v>5.8499999999999996E-2</v>
-      </c>
-      <c r="C17" s="9">
-        <v>10</v>
-      </c>
-      <c r="D17" s="10">
-        <f>C17*B17</f>
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="E17" s="14">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="2"/>
-        <v>1.17</v>
-      </c>
-      <c r="G17" s="9">
-        <v>40</v>
-      </c>
-      <c r="H17" s="12">
-        <f>1.49+0.85</f>
-        <v>2.34</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="11">
-        <f t="shared" si="4"/>
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.7</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="10">
-        <f t="shared" si="5"/>
+      <c r="B18" s="9">
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D18" s="10">
-        <f>C18*B18</f>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E18" s="14">
-        <f t="shared" si="1"/>
+      <c r="E18" s="13">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F18" s="10">
-        <f t="shared" si="2"/>
+      <c r="F18" s="9">
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>20</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>1</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
+        <f t="shared" si="6"/>
+        <v>1.66</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="0"/>
+        <v>1.66</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="3"/>
+        <v>3.32</v>
+      </c>
+      <c r="G19" s="8">
+        <v>8</v>
+      </c>
+      <c r="H19" s="11">
+        <v>13.28</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="17">
         <f t="shared" si="5"/>
-        <v>1.875</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="10">
-        <f>C19*B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>8</v>
-      </c>
-      <c r="H19" s="12">
-        <v>15</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13.28</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
+        <f t="shared" si="6"/>
+        <v>0.11083333333333334</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11083333333333334</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="3"/>
+        <v>0.22166666666666668</v>
+      </c>
+      <c r="G20" s="8">
+        <v>12</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1.33</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="17">
         <f t="shared" si="5"/>
-        <v>0.10166666666666667</v>
-      </c>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10">
-        <f>C20*B20</f>
-        <v>0.10166666666666667</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" si="2"/>
-        <v>0.20333333333333334</v>
-      </c>
-      <c r="G20" s="9">
-        <v>12</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1.22</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J20" s="11">
-        <f t="shared" si="4"/>
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.33</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1361,9 +1491,10 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="16"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1372,9 +1503,10 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="16"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1383,9 +1515,10 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="16"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1394,9 +1527,10 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="16"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1405,9 +1539,10 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="16"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1416,9 +1551,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="16"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1427,9 +1563,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="16"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1438,9 +1575,10 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="16"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1449,9 +1587,10 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="16"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1460,9 +1599,10 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="16"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1471,9 +1611,10 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="16"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1482,9 +1623,10 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="16"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1493,9 +1635,10 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="16"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1504,9 +1647,10 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="16"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1515,9 +1659,10 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="16"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1526,9 +1671,10 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="16"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1537,9 +1683,10 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="16"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1548,9 +1695,10 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="16"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1559,9 +1707,10 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="16"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1570,9 +1719,10 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="16"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1581,9 +1731,10 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="16"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1592,9 +1743,10 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="16"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1603,9 +1755,10 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J43" s="16"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1614,9 +1767,10 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J44" s="16"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1625,9 +1779,10 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J45" s="16"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1636,9 +1791,10 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J46" s="16"/>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1647,9 +1803,10 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J47" s="16"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1658,9 +1815,10 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J48" s="16"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1669,9 +1827,10 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="16"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1680,9 +1839,10 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J50" s="16"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1691,9 +1851,10 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J51" s="16"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1702,9 +1863,10 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="16"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1713,9 +1875,10 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="6"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J53" s="16"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1724,9 +1887,10 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J54" s="16"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1735,9 +1899,10 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="6"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J55" s="16"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1746,9 +1911,10 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="6"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J56" s="16"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1757,9 +1923,10 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J57" s="16"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1768,9 +1935,10 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="6"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J58" s="16"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1779,9 +1947,10 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="6"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J59" s="16"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1790,9 +1959,10 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J60" s="16"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1801,9 +1971,10 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="6"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J61" s="16"/>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1812,9 +1983,10 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="6"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J62" s="16"/>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1823,9 +1995,10 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="6"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J63" s="16"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1834,9 +2007,10 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="6"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J64" s="16"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1845,9 +2019,10 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J65" s="16"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1856,9 +2031,10 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="6"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J66" s="16"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1867,9 +2043,10 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="6"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J67" s="16"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1878,9 +2055,10 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="6"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J68" s="16"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1889,9 +2067,10 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="6"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J69" s="16"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1900,9 +2079,10 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="6"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J70" s="16"/>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1911,9 +2091,10 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="6"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J71" s="16"/>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1922,9 +2103,10 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="6"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J72" s="16"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1933,9 +2115,10 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="6"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J73" s="16"/>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1944,9 +2127,10 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="6"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J74" s="16"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1955,9 +2139,10 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="6"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J75" s="16"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1966,9 +2151,10 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="6"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J76" s="16"/>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1977,9 +2163,10 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="6"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J77" s="16"/>
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -1988,9 +2175,10 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="6"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J78" s="16"/>
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -1999,9 +2187,10 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="6"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J79" s="16"/>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2010,9 +2199,10 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="6"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J80" s="16"/>
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2021,9 +2211,10 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="6"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J81" s="16"/>
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2032,9 +2223,10 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="6"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J82" s="16"/>
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2043,9 +2235,10 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="6"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J83" s="16"/>
+      <c r="K83" s="6"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2054,9 +2247,10 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="6"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J84" s="16"/>
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2065,9 +2259,10 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="6"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J85" s="16"/>
+      <c r="K85" s="6"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2076,9 +2271,10 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="6"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J86" s="16"/>
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2087,9 +2283,10 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="6"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J87" s="16"/>
+      <c r="K87" s="6"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2098,9 +2295,10 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="6"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J88" s="16"/>
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2109,9 +2307,10 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="6"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J89" s="16"/>
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2120,9 +2319,10 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="6"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J90" s="16"/>
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2131,9 +2331,10 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="6"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J91" s="16"/>
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2142,9 +2343,10 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="6"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J92" s="16"/>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2153,9 +2355,10 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="6"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J93" s="16"/>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2164,9 +2367,10 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="6"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J94" s="16"/>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2175,9 +2379,10 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="6"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J95" s="16"/>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2186,9 +2391,10 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="6"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J96" s="16"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2197,9 +2403,10 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="6"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J97" s="16"/>
+      <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2208,9 +2415,10 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="6"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J98" s="16"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2219,9 +2427,10 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="6"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J99" s="16"/>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2230,9 +2439,10 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="6"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J100" s="16"/>
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2241,9 +2451,10 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="6"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J101" s="16"/>
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2252,9 +2463,10 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="6"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J102" s="16"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2263,9 +2475,10 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="6"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J103" s="16"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2274,9 +2487,10 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="6"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J104" s="16"/>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2285,9 +2499,10 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="6"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J105" s="16"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2296,9 +2511,10 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="6"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J106" s="16"/>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2307,9 +2523,10 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="J107" s="6"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J107" s="16"/>
+      <c r="K107" s="6"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2318,9 +2535,10 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="6"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J108" s="16"/>
+      <c r="K108" s="6"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2329,9 +2547,10 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="6"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J109" s="16"/>
+      <c r="K109" s="6"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2340,9 +2559,10 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="6"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J110" s="16"/>
+      <c r="K110" s="6"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2351,9 +2571,10 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-      <c r="J111" s="6"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J111" s="16"/>
+      <c r="K111" s="6"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2362,9 +2583,10 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="6"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J112" s="16"/>
+      <c r="K112" s="6"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2373,9 +2595,10 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="6"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J113" s="16"/>
+      <c r="K113" s="6"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2384,9 +2607,10 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="6"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J114" s="16"/>
+      <c r="K114" s="6"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2395,9 +2619,10 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="6"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J115" s="16"/>
+      <c r="K115" s="6"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2406,9 +2631,10 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="6"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J116" s="16"/>
+      <c r="K116" s="6"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2417,9 +2643,10 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="6"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J117" s="16"/>
+      <c r="K117" s="6"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2428,9 +2655,10 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="6"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J118" s="16"/>
+      <c r="K118" s="6"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2439,9 +2667,10 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-      <c r="J119" s="6"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J119" s="16"/>
+      <c r="K119" s="6"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2450,9 +2679,10 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="6"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J120" s="16"/>
+      <c r="K120" s="6"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2461,9 +2691,10 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="6"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J121" s="16"/>
+      <c r="K121" s="6"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2472,9 +2703,10 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="6"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J122" s="16"/>
+      <c r="K122" s="6"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2483,9 +2715,10 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-      <c r="J123" s="6"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J123" s="16"/>
+      <c r="K123" s="6"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2494,9 +2727,10 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-      <c r="J124" s="6"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J124" s="16"/>
+      <c r="K124" s="6"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2505,9 +2739,10 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="J125" s="6"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J125" s="16"/>
+      <c r="K125" s="6"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2516,9 +2751,10 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-      <c r="J126" s="6"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J126" s="16"/>
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -2527,9 +2763,10 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-      <c r="J127" s="6"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J127" s="16"/>
+      <c r="K127" s="6"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2538,9 +2775,10 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="J128" s="6"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J128" s="16"/>
+      <c r="K128" s="6"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -2549,9 +2787,10 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="6"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J129" s="16"/>
+      <c r="K129" s="6"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2560,9 +2799,10 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="6"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J130" s="16"/>
+      <c r="K130" s="6"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -2571,9 +2811,10 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="6"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J131" s="16"/>
+      <c r="K131" s="6"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -2582,9 +2823,10 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-      <c r="J132" s="6"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J132" s="16"/>
+      <c r="K132" s="6"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -2593,9 +2835,10 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="6"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J133" s="16"/>
+      <c r="K133" s="6"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -2604,9 +2847,10 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="6"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J134" s="16"/>
+      <c r="K134" s="6"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -2615,9 +2859,10 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-      <c r="J135" s="6"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J135" s="16"/>
+      <c r="K135" s="6"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -2626,9 +2871,10 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-      <c r="J136" s="6"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J136" s="16"/>
+      <c r="K136" s="6"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -2637,9 +2883,10 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-      <c r="J137" s="6"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J137" s="16"/>
+      <c r="K137" s="6"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -2648,9 +2895,10 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-      <c r="J138" s="6"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J138" s="16"/>
+      <c r="K138" s="6"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -2659,9 +2907,10 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-      <c r="J139" s="6"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J139" s="16"/>
+      <c r="K139" s="6"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -2670,9 +2919,10 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="6"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J140" s="16"/>
+      <c r="K140" s="6"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -2681,9 +2931,10 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-      <c r="J141" s="6"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J141" s="16"/>
+      <c r="K141" s="6"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -2692,9 +2943,10 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-      <c r="J142" s="6"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J142" s="16"/>
+      <c r="K142" s="6"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -2703,9 +2955,10 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-      <c r="J143" s="6"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J143" s="16"/>
+      <c r="K143" s="6"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -2714,9 +2967,10 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-      <c r="J144" s="6"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J144" s="16"/>
+      <c r="K144" s="6"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -2725,9 +2979,10 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="6"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J145" s="16"/>
+      <c r="K145" s="6"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -2736,9 +2991,10 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-      <c r="J146" s="6"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J146" s="16"/>
+      <c r="K146" s="6"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -2747,9 +3003,10 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-      <c r="J147" s="6"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J147" s="16"/>
+      <c r="K147" s="6"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -2758,9 +3015,10 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-      <c r="J148" s="6"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J148" s="16"/>
+      <c r="K148" s="6"/>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -2769,9 +3027,10 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-      <c r="J149" s="6"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J149" s="16"/>
+      <c r="K149" s="6"/>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -2780,9 +3039,10 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-      <c r="J150" s="6"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J150" s="16"/>
+      <c r="K150" s="6"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -2791,9 +3051,10 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-      <c r="J151" s="6"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J151" s="16"/>
+      <c r="K151" s="6"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -2802,9 +3063,10 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-      <c r="J152" s="6"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J152" s="16"/>
+      <c r="K152" s="6"/>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -2813,9 +3075,10 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-      <c r="J153" s="6"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J153" s="16"/>
+      <c r="K153" s="6"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -2824,9 +3087,10 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-      <c r="J154" s="6"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J154" s="16"/>
+      <c r="K154" s="6"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -2835,9 +3099,10 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-      <c r="J155" s="6"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J155" s="16"/>
+      <c r="K155" s="6"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -2846,9 +3111,10 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-      <c r="J156" s="6"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J156" s="16"/>
+      <c r="K156" s="6"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -2857,9 +3123,10 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
-      <c r="J157" s="6"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J157" s="16"/>
+      <c r="K157" s="6"/>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -2868,9 +3135,10 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-      <c r="J158" s="6"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J158" s="16"/>
+      <c r="K158" s="6"/>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -2879,9 +3147,10 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-      <c r="J159" s="6"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J159" s="16"/>
+      <c r="K159" s="6"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -2890,9 +3159,10 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-      <c r="J160" s="6"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J160" s="16"/>
+      <c r="K160" s="6"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -2901,9 +3171,10 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-      <c r="J161" s="6"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J161" s="16"/>
+      <c r="K161" s="6"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -2912,9 +3183,10 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-      <c r="J162" s="6"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J162" s="16"/>
+      <c r="K162" s="6"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -2923,9 +3195,10 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-      <c r="J163" s="6"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J163" s="16"/>
+      <c r="K163" s="6"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -2934,9 +3207,10 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-      <c r="J164" s="6"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J164" s="16"/>
+      <c r="K164" s="6"/>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -2945,9 +3219,10 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-      <c r="J165" s="6"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J165" s="16"/>
+      <c r="K165" s="6"/>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -2956,9 +3231,10 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-      <c r="J166" s="6"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J166" s="16"/>
+      <c r="K166" s="6"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -2967,9 +3243,10 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-      <c r="J167" s="6"/>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J167" s="16"/>
+      <c r="K167" s="6"/>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -2978,9 +3255,10 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-      <c r="J168" s="6"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J168" s="16"/>
+      <c r="K168" s="6"/>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -2989,9 +3267,10 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-      <c r="J169" s="6"/>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J169" s="16"/>
+      <c r="K169" s="6"/>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -3000,9 +3279,10 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-      <c r="J170" s="6"/>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J170" s="16"/>
+      <c r="K170" s="6"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -3011,9 +3291,10 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-      <c r="J171" s="6"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J171" s="16"/>
+      <c r="K171" s="6"/>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -3022,9 +3303,10 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-      <c r="J172" s="6"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J172" s="16"/>
+      <c r="K172" s="6"/>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -3033,9 +3315,10 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-      <c r="J173" s="6"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J173" s="16"/>
+      <c r="K173" s="6"/>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -3044,9 +3327,10 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-      <c r="J174" s="6"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J174" s="16"/>
+      <c r="K174" s="6"/>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -3055,9 +3339,10 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-      <c r="J175" s="6"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J175" s="16"/>
+      <c r="K175" s="6"/>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -3066,9 +3351,10 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-      <c r="J176" s="6"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J176" s="16"/>
+      <c r="K176" s="6"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -3077,9 +3363,10 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-      <c r="J177" s="6"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J177" s="16"/>
+      <c r="K177" s="6"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -3088,9 +3375,10 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-      <c r="J178" s="6"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J178" s="16"/>
+      <c r="K178" s="6"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -3099,9 +3387,10 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-      <c r="J179" s="6"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J179" s="16"/>
+      <c r="K179" s="6"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -3110,9 +3399,10 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-      <c r="J180" s="6"/>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J180" s="16"/>
+      <c r="K180" s="6"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -3121,9 +3411,10 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-      <c r="J181" s="6"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J181" s="16"/>
+      <c r="K181" s="6"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -3132,9 +3423,10 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-      <c r="J182" s="6"/>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J182" s="16"/>
+      <c r="K182" s="6"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -3143,9 +3435,10 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
-      <c r="J183" s="6"/>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J183" s="16"/>
+      <c r="K183" s="6"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -3154,9 +3447,10 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
-      <c r="J184" s="6"/>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J184" s="16"/>
+      <c r="K184" s="6"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -3165,9 +3459,10 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
-      <c r="J185" s="6"/>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J185" s="16"/>
+      <c r="K185" s="6"/>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -3176,9 +3471,10 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-      <c r="J186" s="6"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J186" s="16"/>
+      <c r="K186" s="6"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -3187,9 +3483,10 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-      <c r="J187" s="6"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J187" s="16"/>
+      <c r="K187" s="6"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -3198,9 +3495,10 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-      <c r="J188" s="6"/>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J188" s="16"/>
+      <c r="K188" s="6"/>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -3209,9 +3507,10 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-      <c r="J189" s="6"/>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J189" s="16"/>
+      <c r="K189" s="6"/>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -3220,9 +3519,10 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
-      <c r="J190" s="6"/>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J190" s="16"/>
+      <c r="K190" s="6"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -3231,9 +3531,10 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
-      <c r="J191" s="6"/>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J191" s="16"/>
+      <c r="K191" s="6"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -3242,9 +3543,10 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-      <c r="J192" s="6"/>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J192" s="16"/>
+      <c r="K192" s="6"/>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -3253,9 +3555,10 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-      <c r="J193" s="6"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J193" s="16"/>
+      <c r="K193" s="6"/>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -3264,9 +3567,10 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-      <c r="J194" s="6"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J194" s="16"/>
+      <c r="K194" s="6"/>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -3275,9 +3579,10 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
-      <c r="J195" s="6"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J195" s="16"/>
+      <c r="K195" s="6"/>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -3286,9 +3591,10 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-      <c r="J196" s="6"/>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J196" s="16"/>
+      <c r="K196" s="6"/>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -3297,9 +3603,10 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
-      <c r="J197" s="6"/>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J197" s="16"/>
+      <c r="K197" s="6"/>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -3308,9 +3615,10 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-      <c r="J198" s="6"/>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J198" s="16"/>
+      <c r="K198" s="6"/>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -3319,9 +3627,10 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
-      <c r="J199" s="6"/>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J199" s="16"/>
+      <c r="K199" s="6"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -3330,9 +3639,10 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-      <c r="J200" s="6"/>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J200" s="16"/>
+      <c r="K200" s="6"/>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -3341,9 +3651,10 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
-      <c r="J201" s="6"/>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J201" s="16"/>
+      <c r="K201" s="6"/>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -3352,9 +3663,10 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
-      <c r="J202" s="6"/>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J202" s="16"/>
+      <c r="K202" s="6"/>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -3363,9 +3675,10 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
-      <c r="J203" s="6"/>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J203" s="16"/>
+      <c r="K203" s="6"/>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -3374,9 +3687,10 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
-      <c r="J204" s="6"/>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J204" s="16"/>
+      <c r="K204" s="6"/>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -3385,9 +3699,10 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
-      <c r="J205" s="6"/>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J205" s="16"/>
+      <c r="K205" s="6"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -3396,9 +3711,10 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
-      <c r="J206" s="6"/>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J206" s="16"/>
+      <c r="K206" s="6"/>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -3407,9 +3723,10 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
-      <c r="J207" s="6"/>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J207" s="16"/>
+      <c r="K207" s="6"/>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -3418,9 +3735,10 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-      <c r="J208" s="6"/>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J208" s="16"/>
+      <c r="K208" s="6"/>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -3429,9 +3747,10 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
-      <c r="J209" s="6"/>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J209" s="16"/>
+      <c r="K209" s="6"/>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -3440,9 +3759,10 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
-      <c r="J210" s="6"/>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J210" s="16"/>
+      <c r="K210" s="6"/>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -3451,9 +3771,10 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
-      <c r="J211" s="6"/>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J211" s="16"/>
+      <c r="K211" s="6"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -3462,9 +3783,10 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
-      <c r="J212" s="6"/>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J212" s="16"/>
+      <c r="K212" s="6"/>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -3473,9 +3795,10 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="6"/>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J213" s="16"/>
+      <c r="K213" s="6"/>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -3484,9 +3807,10 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-      <c r="J214" s="6"/>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J214" s="16"/>
+      <c r="K214" s="6"/>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -3495,9 +3819,10 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-      <c r="J215" s="6"/>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J215" s="16"/>
+      <c r="K215" s="6"/>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -3506,9 +3831,10 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
-      <c r="J216" s="6"/>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J216" s="16"/>
+      <c r="K216" s="6"/>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -3517,9 +3843,10 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
-      <c r="J217" s="6"/>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J217" s="16"/>
+      <c r="K217" s="6"/>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -3528,9 +3855,10 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
-      <c r="J218" s="6"/>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J218" s="16"/>
+      <c r="K218" s="6"/>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -3539,9 +3867,10 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
-      <c r="J219" s="6"/>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J219" s="16"/>
+      <c r="K219" s="6"/>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -3550,9 +3879,10 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
-      <c r="J220" s="6"/>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J220" s="16"/>
+      <c r="K220" s="6"/>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -3561,9 +3891,10 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
-      <c r="J221" s="6"/>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J221" s="16"/>
+      <c r="K221" s="6"/>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -3572,9 +3903,10 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
-      <c r="J222" s="6"/>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J222" s="16"/>
+      <c r="K222" s="6"/>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -3583,9 +3915,10 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
-      <c r="J223" s="6"/>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J223" s="16"/>
+      <c r="K223" s="6"/>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -3594,9 +3927,10 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
-      <c r="J224" s="6"/>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J224" s="16"/>
+      <c r="K224" s="6"/>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -3605,9 +3939,10 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
-      <c r="J225" s="6"/>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J225" s="16"/>
+      <c r="K225" s="6"/>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -3616,9 +3951,10 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
-      <c r="J226" s="6"/>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J226" s="16"/>
+      <c r="K226" s="6"/>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -3627,9 +3963,10 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
-      <c r="J227" s="6"/>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J227" s="16"/>
+      <c r="K227" s="6"/>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -3638,9 +3975,10 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
-      <c r="J228" s="6"/>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J228" s="16"/>
+      <c r="K228" s="6"/>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -3649,9 +3987,10 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
-      <c r="J229" s="6"/>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J229" s="16"/>
+      <c r="K229" s="6"/>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -3660,9 +3999,10 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
-      <c r="J230" s="6"/>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J230" s="16"/>
+      <c r="K230" s="6"/>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -3671,9 +4011,10 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
-      <c r="J231" s="6"/>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J231" s="16"/>
+      <c r="K231" s="6"/>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -3682,9 +4023,10 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
-      <c r="J232" s="6"/>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J232" s="16"/>
+      <c r="K232" s="6"/>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -3693,9 +4035,10 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
-      <c r="J233" s="6"/>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J233" s="16"/>
+      <c r="K233" s="6"/>
+    </row>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -3704,9 +4047,10 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
-      <c r="J234" s="6"/>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J234" s="16"/>
+      <c r="K234" s="6"/>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -3715,9 +4059,10 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
-      <c r="J235" s="6"/>
-    </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J235" s="16"/>
+      <c r="K235" s="6"/>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -3726,9 +4071,10 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
-      <c r="J236" s="6"/>
-    </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J236" s="16"/>
+      <c r="K236" s="6"/>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -3737,9 +4083,10 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
-      <c r="J237" s="6"/>
-    </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J237" s="16"/>
+      <c r="K237" s="6"/>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -3748,9 +4095,10 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
-      <c r="J238" s="6"/>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J238" s="16"/>
+      <c r="K238" s="6"/>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -3759,9 +4107,10 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
-      <c r="J239" s="6"/>
-    </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J239" s="16"/>
+      <c r="K239" s="6"/>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -3770,9 +4119,10 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
-      <c r="J240" s="6"/>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J240" s="16"/>
+      <c r="K240" s="6"/>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -3781,9 +4131,10 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
-      <c r="J241" s="6"/>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J241" s="16"/>
+      <c r="K241" s="6"/>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -3792,9 +4143,10 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
-      <c r="J242" s="6"/>
-    </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J242" s="16"/>
+      <c r="K242" s="6"/>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -3803,9 +4155,10 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
-      <c r="J243" s="6"/>
-    </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J243" s="16"/>
+      <c r="K243" s="6"/>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -3814,9 +4167,10 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
-      <c r="J244" s="6"/>
-    </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J244" s="16"/>
+      <c r="K244" s="6"/>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -3825,9 +4179,10 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
-      <c r="J245" s="6"/>
-    </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J245" s="16"/>
+      <c r="K245" s="6"/>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -3836,9 +4191,10 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
-      <c r="J246" s="6"/>
-    </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J246" s="16"/>
+      <c r="K246" s="6"/>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -3847,9 +4203,10 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
-      <c r="J247" s="6"/>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J247" s="16"/>
+      <c r="K247" s="6"/>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -3858,9 +4215,10 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
-      <c r="J248" s="6"/>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J248" s="16"/>
+      <c r="K248" s="6"/>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -3869,9 +4227,10 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
-      <c r="J249" s="6"/>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J249" s="16"/>
+      <c r="K249" s="6"/>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -3880,9 +4239,10 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
-      <c r="J250" s="6"/>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J250" s="16"/>
+      <c r="K250" s="6"/>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -3891,9 +4251,10 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
-      <c r="J251" s="6"/>
-    </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J251" s="16"/>
+      <c r="K251" s="6"/>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -3902,9 +4263,10 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
-      <c r="J252" s="6"/>
-    </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J252" s="16"/>
+      <c r="K252" s="6"/>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -3913,9 +4275,10 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
-      <c r="J253" s="6"/>
-    </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J253" s="16"/>
+      <c r="K253" s="6"/>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -3924,9 +4287,10 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
-      <c r="J254" s="6"/>
-    </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J254" s="16"/>
+      <c r="K254" s="6"/>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -3935,9 +4299,10 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
-      <c r="J255" s="6"/>
-    </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J255" s="16"/>
+      <c r="K255" s="6"/>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -3946,9 +4311,10 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
-      <c r="J256" s="6"/>
-    </row>
-    <row r="257" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J256" s="16"/>
+      <c r="K256" s="6"/>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -3957,9 +4323,10 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
-      <c r="J257" s="6"/>
-    </row>
-    <row r="258" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J257" s="16"/>
+      <c r="K257" s="6"/>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -3968,9 +4335,10 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
-      <c r="J258" s="6"/>
-    </row>
-    <row r="259" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J258" s="16"/>
+      <c r="K258" s="6"/>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -3979,9 +4347,10 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
-      <c r="J259" s="6"/>
-    </row>
-    <row r="260" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J259" s="16"/>
+      <c r="K259" s="6"/>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -3990,9 +4359,10 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
-      <c r="J260" s="6"/>
-    </row>
-    <row r="261" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J260" s="16"/>
+      <c r="K260" s="6"/>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -4001,9 +4371,10 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
-      <c r="J261" s="6"/>
-    </row>
-    <row r="262" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J261" s="16"/>
+      <c r="K261" s="6"/>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -4012,9 +4383,10 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
-      <c r="J262" s="6"/>
-    </row>
-    <row r="263" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J262" s="16"/>
+      <c r="K262" s="6"/>
+    </row>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -4023,9 +4395,10 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
-      <c r="J263" s="6"/>
-    </row>
-    <row r="264" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J263" s="16"/>
+      <c r="K263" s="6"/>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -4034,9 +4407,10 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
-      <c r="J264" s="6"/>
-    </row>
-    <row r="265" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J264" s="16"/>
+      <c r="K264" s="6"/>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -4045,9 +4419,10 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
-      <c r="J265" s="6"/>
-    </row>
-    <row r="266" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J265" s="16"/>
+      <c r="K265" s="6"/>
+    </row>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -4056,9 +4431,10 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
-      <c r="J266" s="6"/>
-    </row>
-    <row r="267" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J266" s="16"/>
+      <c r="K266" s="6"/>
+    </row>
+    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -4067,9 +4443,10 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
-      <c r="J267" s="6"/>
-    </row>
-    <row r="268" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J267" s="16"/>
+      <c r="K267" s="6"/>
+    </row>
+    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -4078,9 +4455,10 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
-      <c r="J268" s="6"/>
-    </row>
-    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J268" s="16"/>
+      <c r="K268" s="6"/>
+    </row>
+    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -4089,9 +4467,10 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
-      <c r="J269" s="6"/>
-    </row>
-    <row r="270" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J269" s="16"/>
+      <c r="K269" s="6"/>
+    </row>
+    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -4100,9 +4479,10 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
-      <c r="J270" s="6"/>
-    </row>
-    <row r="271" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J270" s="16"/>
+      <c r="K270" s="6"/>
+    </row>
+    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -4111,9 +4491,10 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
-      <c r="J271" s="6"/>
-    </row>
-    <row r="272" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J271" s="16"/>
+      <c r="K271" s="6"/>
+    </row>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -4122,9 +4503,10 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
-      <c r="J272" s="6"/>
-    </row>
-    <row r="273" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J272" s="16"/>
+      <c r="K272" s="6"/>
+    </row>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -4133,9 +4515,10 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
-      <c r="J273" s="6"/>
-    </row>
-    <row r="274" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J273" s="16"/>
+      <c r="K273" s="6"/>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -4144,9 +4527,10 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
-      <c r="J274" s="6"/>
-    </row>
-    <row r="275" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J274" s="16"/>
+      <c r="K274" s="6"/>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -4155,9 +4539,10 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
-      <c r="J275" s="6"/>
-    </row>
-    <row r="276" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J275" s="16"/>
+      <c r="K275" s="6"/>
+    </row>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -4166,9 +4551,10 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
-      <c r="J276" s="6"/>
-    </row>
-    <row r="277" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J276" s="16"/>
+      <c r="K276" s="6"/>
+    </row>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -4177,9 +4563,10 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
-      <c r="J277" s="6"/>
-    </row>
-    <row r="278" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J277" s="16"/>
+      <c r="K277" s="6"/>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -4188,9 +4575,10 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
-      <c r="J278" s="6"/>
-    </row>
-    <row r="279" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J278" s="16"/>
+      <c r="K278" s="6"/>
+    </row>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -4199,9 +4587,10 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
-      <c r="J279" s="6"/>
-    </row>
-    <row r="280" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J279" s="16"/>
+      <c r="K279" s="6"/>
+    </row>
+    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -4210,9 +4599,10 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
-      <c r="J280" s="6"/>
-    </row>
-    <row r="281" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J280" s="16"/>
+      <c r="K280" s="6"/>
+    </row>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -4221,9 +4611,10 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
-      <c r="J281" s="6"/>
-    </row>
-    <row r="282" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J281" s="16"/>
+      <c r="K281" s="6"/>
+    </row>
+    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -4232,9 +4623,10 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
-      <c r="J282" s="6"/>
-    </row>
-    <row r="283" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J282" s="16"/>
+      <c r="K282" s="6"/>
+    </row>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -4243,9 +4635,10 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
-      <c r="J283" s="6"/>
-    </row>
-    <row r="284" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J283" s="16"/>
+      <c r="K283" s="6"/>
+    </row>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -4254,9 +4647,10 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
-      <c r="J284" s="6"/>
-    </row>
-    <row r="285" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J284" s="16"/>
+      <c r="K284" s="6"/>
+    </row>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -4265,9 +4659,10 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
-      <c r="J285" s="6"/>
-    </row>
-    <row r="286" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J285" s="16"/>
+      <c r="K285" s="6"/>
+    </row>
+    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -4276,9 +4671,10 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
-      <c r="J286" s="6"/>
-    </row>
-    <row r="287" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J286" s="16"/>
+      <c r="K286" s="6"/>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -4287,9 +4683,10 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
-      <c r="J287" s="6"/>
-    </row>
-    <row r="288" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J287" s="16"/>
+      <c r="K287" s="6"/>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -4298,9 +4695,10 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
-      <c r="J288" s="6"/>
-    </row>
-    <row r="289" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J288" s="16"/>
+      <c r="K288" s="6"/>
+    </row>
+    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -4309,9 +4707,10 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
-      <c r="J289" s="6"/>
-    </row>
-    <row r="290" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J289" s="16"/>
+      <c r="K289" s="6"/>
+    </row>
+    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -4320,9 +4719,10 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
-      <c r="J290" s="6"/>
-    </row>
-    <row r="291" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J290" s="16"/>
+      <c r="K290" s="6"/>
+    </row>
+    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -4331,9 +4731,10 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
-      <c r="J291" s="6"/>
-    </row>
-    <row r="292" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J291" s="16"/>
+      <c r="K291" s="6"/>
+    </row>
+    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -4342,9 +4743,10 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
-      <c r="J292" s="6"/>
-    </row>
-    <row r="293" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J292" s="16"/>
+      <c r="K292" s="6"/>
+    </row>
+    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -4353,9 +4755,10 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
-      <c r="J293" s="6"/>
-    </row>
-    <row r="294" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J293" s="16"/>
+      <c r="K293" s="6"/>
+    </row>
+    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -4364,9 +4767,10 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
-      <c r="J294" s="6"/>
-    </row>
-    <row r="295" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J294" s="16"/>
+      <c r="K294" s="6"/>
+    </row>
+    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -4375,9 +4779,10 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
-      <c r="J295" s="6"/>
-    </row>
-    <row r="296" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J295" s="16"/>
+      <c r="K295" s="6"/>
+    </row>
+    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -4386,9 +4791,10 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
-      <c r="J296" s="6"/>
-    </row>
-    <row r="297" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J296" s="16"/>
+      <c r="K296" s="6"/>
+    </row>
+    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -4397,9 +4803,10 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
-      <c r="J297" s="6"/>
-    </row>
-    <row r="298" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J297" s="16"/>
+      <c r="K297" s="6"/>
+    </row>
+    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -4408,9 +4815,10 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
-      <c r="J298" s="6"/>
-    </row>
-    <row r="299" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J298" s="16"/>
+      <c r="K298" s="6"/>
+    </row>
+    <row r="299" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -4419,9 +4827,10 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
-      <c r="J299" s="6"/>
-    </row>
-    <row r="300" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J299" s="16"/>
+      <c r="K299" s="6"/>
+    </row>
+    <row r="300" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -4430,9 +4839,10 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
-      <c r="J300" s="6"/>
-    </row>
-    <row r="301" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J300" s="16"/>
+      <c r="K300" s="6"/>
+    </row>
+    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -4441,9 +4851,10 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
-      <c r="J301" s="6"/>
-    </row>
-    <row r="302" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J301" s="16"/>
+      <c r="K301" s="6"/>
+    </row>
+    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -4452,9 +4863,10 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
-      <c r="J302" s="6"/>
-    </row>
-    <row r="303" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J302" s="16"/>
+      <c r="K302" s="6"/>
+    </row>
+    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -4463,9 +4875,10 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
-      <c r="J303" s="6"/>
-    </row>
-    <row r="304" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J303" s="16"/>
+      <c r="K303" s="6"/>
+    </row>
+    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -4474,9 +4887,10 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
-      <c r="J304" s="6"/>
-    </row>
-    <row r="305" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J304" s="16"/>
+      <c r="K304" s="6"/>
+    </row>
+    <row r="305" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -4485,9 +4899,10 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
-      <c r="J305" s="6"/>
-    </row>
-    <row r="306" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J305" s="16"/>
+      <c r="K305" s="6"/>
+    </row>
+    <row r="306" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -4496,9 +4911,10 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
-      <c r="J306" s="6"/>
-    </row>
-    <row r="307" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J306" s="16"/>
+      <c r="K306" s="6"/>
+    </row>
+    <row r="307" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -4507,9 +4923,10 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
-      <c r="J307" s="6"/>
-    </row>
-    <row r="308" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J307" s="16"/>
+      <c r="K307" s="6"/>
+    </row>
+    <row r="308" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -4518,9 +4935,10 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
-      <c r="J308" s="6"/>
-    </row>
-    <row r="309" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J308" s="16"/>
+      <c r="K308" s="6"/>
+    </row>
+    <row r="309" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -4529,9 +4947,10 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="6"/>
-    </row>
-    <row r="310" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J309" s="16"/>
+      <c r="K309" s="6"/>
+    </row>
+    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -4540,9 +4959,10 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
-      <c r="J310" s="6"/>
-    </row>
-    <row r="311" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J310" s="16"/>
+      <c r="K310" s="6"/>
+    </row>
+    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -4551,9 +4971,10 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
-      <c r="J311" s="6"/>
-    </row>
-    <row r="312" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J311" s="16"/>
+      <c r="K311" s="6"/>
+    </row>
+    <row r="312" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -4562,9 +4983,10 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
-      <c r="J312" s="6"/>
-    </row>
-    <row r="313" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J312" s="16"/>
+      <c r="K312" s="6"/>
+    </row>
+    <row r="313" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -4573,9 +4995,10 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
-      <c r="J313" s="6"/>
-    </row>
-    <row r="314" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J313" s="16"/>
+      <c r="K313" s="6"/>
+    </row>
+    <row r="314" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -4584,9 +5007,10 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
-      <c r="J314" s="6"/>
-    </row>
-    <row r="315" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J314" s="16"/>
+      <c r="K314" s="6"/>
+    </row>
+    <row r="315" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -4595,9 +5019,10 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
-      <c r="J315" s="6"/>
-    </row>
-    <row r="316" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J315" s="16"/>
+      <c r="K315" s="6"/>
+    </row>
+    <row r="316" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -4606,9 +5031,10 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
-      <c r="J316" s="6"/>
-    </row>
-    <row r="317" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J316" s="16"/>
+      <c r="K316" s="6"/>
+    </row>
+    <row r="317" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -4617,9 +5043,10 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
-      <c r="J317" s="6"/>
-    </row>
-    <row r="318" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J317" s="16"/>
+      <c r="K317" s="6"/>
+    </row>
+    <row r="318" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -4628,9 +5055,10 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
-      <c r="J318" s="6"/>
-    </row>
-    <row r="319" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J318" s="16"/>
+      <c r="K318" s="6"/>
+    </row>
+    <row r="319" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -4639,9 +5067,10 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
-      <c r="J319" s="6"/>
-    </row>
-    <row r="320" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J319" s="16"/>
+      <c r="K319" s="6"/>
+    </row>
+    <row r="320" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -4650,9 +5079,10 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
-      <c r="J320" s="6"/>
-    </row>
-    <row r="321" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J320" s="16"/>
+      <c r="K320" s="6"/>
+    </row>
+    <row r="321" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -4661,9 +5091,10 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
-      <c r="J321" s="6"/>
-    </row>
-    <row r="322" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J321" s="16"/>
+      <c r="K321" s="6"/>
+    </row>
+    <row r="322" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -4672,9 +5103,10 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
-      <c r="J322" s="6"/>
-    </row>
-    <row r="323" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J322" s="16"/>
+      <c r="K322" s="6"/>
+    </row>
+    <row r="323" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -4683,9 +5115,10 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
-      <c r="J323" s="6"/>
-    </row>
-    <row r="324" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J323" s="16"/>
+      <c r="K323" s="6"/>
+    </row>
+    <row r="324" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -4694,9 +5127,10 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
-      <c r="J324" s="6"/>
-    </row>
-    <row r="325" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J324" s="16"/>
+      <c r="K324" s="6"/>
+    </row>
+    <row r="325" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -4705,9 +5139,10 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
-      <c r="J325" s="6"/>
-    </row>
-    <row r="326" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J325" s="16"/>
+      <c r="K325" s="6"/>
+    </row>
+    <row r="326" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -4716,9 +5151,10 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
-      <c r="J326" s="6"/>
-    </row>
-    <row r="327" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J326" s="16"/>
+      <c r="K326" s="6"/>
+    </row>
+    <row r="327" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -4727,9 +5163,10 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
-      <c r="J327" s="6"/>
-    </row>
-    <row r="328" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J327" s="16"/>
+      <c r="K327" s="6"/>
+    </row>
+    <row r="328" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -4738,9 +5175,10 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
-      <c r="J328" s="6"/>
-    </row>
-    <row r="329" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J328" s="16"/>
+      <c r="K328" s="6"/>
+    </row>
+    <row r="329" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -4749,9 +5187,10 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
-      <c r="J329" s="6"/>
-    </row>
-    <row r="330" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J329" s="16"/>
+      <c r="K329" s="6"/>
+    </row>
+    <row r="330" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -4760,9 +5199,10 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
-      <c r="J330" s="6"/>
-    </row>
-    <row r="331" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J330" s="16"/>
+      <c r="K330" s="6"/>
+    </row>
+    <row r="331" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -4771,9 +5211,10 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
-      <c r="J331" s="6"/>
-    </row>
-    <row r="332" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J331" s="16"/>
+      <c r="K331" s="6"/>
+    </row>
+    <row r="332" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -4782,9 +5223,10 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
-      <c r="J332" s="6"/>
-    </row>
-    <row r="333" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J332" s="16"/>
+      <c r="K332" s="6"/>
+    </row>
+    <row r="333" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -4793,9 +5235,10 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
-      <c r="J333" s="6"/>
-    </row>
-    <row r="334" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J333" s="16"/>
+      <c r="K333" s="6"/>
+    </row>
+    <row r="334" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -4804,9 +5247,10 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
-      <c r="J334" s="6"/>
-    </row>
-    <row r="335" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J334" s="16"/>
+      <c r="K334" s="6"/>
+    </row>
+    <row r="335" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -4815,9 +5259,10 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
-      <c r="J335" s="6"/>
-    </row>
-    <row r="336" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J335" s="16"/>
+      <c r="K335" s="6"/>
+    </row>
+    <row r="336" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -4826,9 +5271,10 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
-      <c r="J336" s="6"/>
-    </row>
-    <row r="337" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J336" s="16"/>
+      <c r="K336" s="6"/>
+    </row>
+    <row r="337" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -4837,9 +5283,10 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
-      <c r="J337" s="6"/>
-    </row>
-    <row r="338" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J337" s="16"/>
+      <c r="K337" s="6"/>
+    </row>
+    <row r="338" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -4848,9 +5295,10 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
-      <c r="J338" s="6"/>
-    </row>
-    <row r="339" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J338" s="16"/>
+      <c r="K338" s="6"/>
+    </row>
+    <row r="339" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -4859,9 +5307,10 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
-      <c r="J339" s="6"/>
-    </row>
-    <row r="340" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J339" s="16"/>
+      <c r="K339" s="6"/>
+    </row>
+    <row r="340" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -4870,9 +5319,10 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
-      <c r="J340" s="6"/>
-    </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J340" s="16"/>
+      <c r="K340" s="6"/>
+    </row>
+    <row r="341" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -4881,9 +5331,10 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
-      <c r="J341" s="6"/>
-    </row>
-    <row r="342" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J341" s="16"/>
+      <c r="K341" s="6"/>
+    </row>
+    <row r="342" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -4892,9 +5343,10 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
-      <c r="J342" s="6"/>
-    </row>
-    <row r="343" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J342" s="16"/>
+      <c r="K342" s="6"/>
+    </row>
+    <row r="343" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -4903,9 +5355,10 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
-      <c r="J343" s="6"/>
-    </row>
-    <row r="344" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J343" s="16"/>
+      <c r="K343" s="6"/>
+    </row>
+    <row r="344" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -4914,9 +5367,10 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
-      <c r="J344" s="6"/>
-    </row>
-    <row r="345" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J344" s="16"/>
+      <c r="K344" s="6"/>
+    </row>
+    <row r="345" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -4925,9 +5379,10 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
-      <c r="J345" s="6"/>
-    </row>
-    <row r="346" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J345" s="16"/>
+      <c r="K345" s="6"/>
+    </row>
+    <row r="346" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -4936,9 +5391,10 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
-      <c r="J346" s="6"/>
-    </row>
-    <row r="347" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J346" s="16"/>
+      <c r="K346" s="6"/>
+    </row>
+    <row r="347" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -4947,9 +5403,10 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
-      <c r="J347" s="6"/>
-    </row>
-    <row r="348" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J347" s="16"/>
+      <c r="K347" s="6"/>
+    </row>
+    <row r="348" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -4958,9 +5415,10 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
-      <c r="J348" s="6"/>
-    </row>
-    <row r="349" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J348" s="16"/>
+      <c r="K348" s="6"/>
+    </row>
+    <row r="349" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -4969,9 +5427,10 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
-      <c r="J349" s="6"/>
-    </row>
-    <row r="350" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J349" s="16"/>
+      <c r="K349" s="6"/>
+    </row>
+    <row r="350" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -4980,9 +5439,10 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
-      <c r="J350" s="6"/>
-    </row>
-    <row r="351" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J350" s="16"/>
+      <c r="K350" s="6"/>
+    </row>
+    <row r="351" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -4991,9 +5451,10 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
-      <c r="J351" s="6"/>
-    </row>
-    <row r="352" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J351" s="16"/>
+      <c r="K351" s="6"/>
+    </row>
+    <row r="352" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -5002,9 +5463,10 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
-      <c r="J352" s="6"/>
-    </row>
-    <row r="353" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J352" s="16"/>
+      <c r="K352" s="6"/>
+    </row>
+    <row r="353" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -5013,9 +5475,10 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
-      <c r="J353" s="6"/>
-    </row>
-    <row r="354" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J353" s="16"/>
+      <c r="K353" s="6"/>
+    </row>
+    <row r="354" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -5024,9 +5487,10 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
-      <c r="J354" s="6"/>
-    </row>
-    <row r="355" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J354" s="16"/>
+      <c r="K354" s="6"/>
+    </row>
+    <row r="355" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -5035,9 +5499,10 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
-      <c r="J355" s="6"/>
-    </row>
-    <row r="356" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J355" s="16"/>
+      <c r="K355" s="6"/>
+    </row>
+    <row r="356" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -5046,9 +5511,10 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
-      <c r="J356" s="6"/>
-    </row>
-    <row r="357" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J356" s="16"/>
+      <c r="K356" s="6"/>
+    </row>
+    <row r="357" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -5057,9 +5523,10 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
-      <c r="J357" s="6"/>
-    </row>
-    <row r="358" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J357" s="16"/>
+      <c r="K357" s="6"/>
+    </row>
+    <row r="358" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -5068,9 +5535,10 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
-      <c r="J358" s="6"/>
-    </row>
-    <row r="359" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J358" s="16"/>
+      <c r="K358" s="6"/>
+    </row>
+    <row r="359" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -5079,9 +5547,10 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
-      <c r="J359" s="6"/>
-    </row>
-    <row r="360" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J359" s="16"/>
+      <c r="K359" s="6"/>
+    </row>
+    <row r="360" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -5090,12 +5559,13 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
-      <c r="J360" s="6"/>
+      <c r="J360" s="16"/>
+      <c r="K360" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
@@ -5111,7 +5581,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J19">
+  <conditionalFormatting sqref="J4:K19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5123,7 +5593,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J20">
+  <conditionalFormatting sqref="J4:K20">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
